--- a/results/test_excel/test_excel.xlsx
+++ b/results/test_excel/test_excel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Documents\MATLAB\CryoG_18112019\CryoGrid\results\test_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
   </bookViews>
@@ -351,7 +356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,20 +694,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -710,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
@@ -718,7 +723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -729,7 +734,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -740,7 +745,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -754,17 +759,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -772,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
@@ -780,7 +785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -788,18 +793,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="5">
-        <v>40816</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="D15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -807,7 +810,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -821,7 +824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -835,7 +838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -849,7 +852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -860,7 +863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -874,7 +877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -888,7 +891,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -902,7 +905,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -916,17 +919,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -934,7 +937,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -942,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
@@ -953,7 +956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -964,12 +967,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -980,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -991,7 +994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>50</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>100</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>150</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>500</v>
       </c>
@@ -1057,22 +1060,22 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1146,12 +1149,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.5</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10</v>
       </c>
@@ -1229,17 +1232,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>23</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -1255,11 +1258,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>24</v>
       </c>
@@ -1270,48 +1273,48 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>108</v>
+      <c r="B68" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>10</v>
-      </c>
-      <c r="B69" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
       <c r="B70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>101</v>
       </c>
@@ -1322,16 +1325,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>23</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>29</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -1366,12 +1369,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1379,7 +1382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>10</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>100</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>5000</v>
       </c>
@@ -1411,27 +1414,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>107</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>72</v>
       </c>
@@ -1557,7 +1560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>73</v>
       </c>
@@ -1574,22 +1577,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>48</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>17</v>
       </c>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>106</v>
       </c>
@@ -1607,11 +1610,11 @@
       </c>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B112" s="6" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>2</v>
       </c>
@@ -1656,7 +1659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>4</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>73</v>
       </c>
@@ -1738,22 +1741,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>48</v>
       </c>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>106</v>
       </c>
@@ -1771,11 +1774,11 @@
       </c>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B126" s="6" t="s">
         <v>19</v>
       </c>
@@ -1786,7 +1789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>2</v>
       </c>
@@ -1820,7 +1823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>72</v>
       </c>
@@ -1885,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>73</v>
       </c>
@@ -1902,16 +1905,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>17</v>
       </c>
@@ -1920,7 +1923,7 @@
       </c>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>88</v>
       </c>
@@ -1929,11 +1932,11 @@
       </c>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B139" s="6" t="s">
         <v>19</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>92</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>89</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>90</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>2</v>
       </c>
@@ -2029,7 +2032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>53</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>72</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>73</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>95</v>
       </c>
@@ -2128,12 +2131,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>17</v>
       </c>
@@ -2142,7 +2145,7 @@
       </c>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>108</v>
       </c>
@@ -2151,11 +2154,11 @@
       </c>
       <c r="C155" s="6"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B157" s="6" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>2</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -2217,7 +2220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>102</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>72</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>73</v>
       </c>
@@ -2299,22 +2302,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>48</v>
       </c>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
     </row>

--- a/results/test_excel/test_excel.xlsx
+++ b/results/test_excel/test_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dmawi\potsdam\homeall\sstuenzi\CryoVeg\CryoVegModel\results\test_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sstuenzi\Seafile\sync\AWI\programing\CryoGrid\Lehnin\CryoGrid\results\test_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="148">
   <si>
     <t xml:space="preserve">    </t>
   </si>
@@ -365,10 +365,109 @@
     <t>01.03.</t>
   </si>
   <si>
-    <t>30.11.1982</t>
-  </si>
-  <si>
-    <t>01.03.1983</t>
+    <t>GROUND_freeW_bucketW_seb_snow</t>
+  </si>
+  <si>
+    <t>SNOW_crocus_no_inheritance</t>
+  </si>
+  <si>
+    <t>rootDepth</t>
+  </si>
+  <si>
+    <t>evaporationDepth</t>
+  </si>
+  <si>
+    <t>ratioET</t>
+  </si>
+  <si>
+    <t>hydraulicConductivity</t>
+  </si>
+  <si>
+    <t>[m/sec]</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>[°]</t>
+  </si>
+  <si>
+    <t>timescale_winddrift</t>
+  </si>
+  <si>
+    <t>[hours]</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Height above ground included</t>
+  </si>
+  <si>
+    <t>depth below ground included</t>
+  </si>
+  <si>
+    <t>ground_spacing</t>
+  </si>
+  <si>
+    <t>interval below ground</t>
+  </si>
+  <si>
+    <t>snow_spacing</t>
+  </si>
+  <si>
+    <t>interval in snow</t>
+  </si>
+  <si>
+    <t>status_seb</t>
+  </si>
+  <si>
+    <t>1 = on, 0 = off</t>
+  </si>
+  <si>
+    <t>status_snow</t>
+  </si>
+  <si>
+    <t>LATERAL</t>
+  </si>
+  <si>
+    <t>LATERAL_snow</t>
+  </si>
+  <si>
+    <t>interaction_timestep</t>
+  </si>
+  <si>
+    <t>[hr]</t>
+  </si>
+  <si>
+    <t>interval for interaction between parallel realizations</t>
+  </si>
+  <si>
+    <t>relative_elevation</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>[m^2]</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>min difference in surface altitudes for snow exchange</t>
+  </si>
+  <si>
+    <t>LATERAL_END</t>
+  </si>
+  <si>
+    <t>Suossjavri_WRF_Norstore_adapted2.mat</t>
+  </si>
+  <si>
+    <t>30.09.2011</t>
+  </si>
+  <si>
+    <t>15.10.2011</t>
   </si>
 </sst>
 </file>
@@ -435,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +546,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -727,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I212"/>
+  <dimension ref="A2:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +842,7 @@
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
@@ -750,7 +850,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
@@ -758,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -769,7 +869,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>79</v>
       </c>
@@ -780,7 +880,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -791,618 +891,692 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="B19">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B21">
-        <v>400</v>
+        <v>0.1</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0.05</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>36</v>
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <v>400</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0</v>
+      <c r="A36" t="s">
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.05</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2</v>
+      <c r="A37" t="s">
+        <v>22</v>
       </c>
       <c r="B37">
         <v>0.05</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0.05</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>0.05</v>
+      </c>
+      <c r="C51">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>10</v>
       </c>
-      <c r="B38">
+      <c r="B52">
         <v>0.1</v>
       </c>
-      <c r="C38">
+      <c r="C52">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>30</v>
       </c>
-      <c r="B39">
+      <c r="B53">
         <v>0.5</v>
       </c>
-      <c r="C39">
+      <c r="C53">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>50</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>100</v>
       </c>
-      <c r="B41">
+      <c r="B55">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="C55">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>150</v>
       </c>
-      <c r="B42">
+      <c r="B56">
         <v>50</v>
       </c>
-      <c r="C42">
+      <c r="C56">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>500</v>
       </c>
-      <c r="B43">
+      <c r="B57">
         <v>100</v>
       </c>
-      <c r="C43">
+      <c r="C57">
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B65" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D65" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E65" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F65" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G65" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H65" t="s">
         <v>54</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I65" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>0.5</v>
-      </c>
-      <c r="C54">
-        <v>0.5</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>500</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>0.5</v>
-      </c>
-      <c r="B55">
-        <v>0.5</v>
-      </c>
-      <c r="C55">
-        <v>0.5</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>1000</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>10</v>
-      </c>
-      <c r="B56">
-        <v>0.03</v>
-      </c>
-      <c r="C56">
-        <v>0.97</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>109</v>
+      <c r="B68">
+        <v>0.5</v>
       </c>
       <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.5</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>500</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>0.5</v>
+      </c>
+      <c r="B69">
+        <v>0.5</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0.5</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1000</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>0.03</v>
+      </c>
+      <c r="C70">
+        <v>0.97</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.5</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
         <v>18</v>
       </c>
-      <c r="E76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -1414,291 +1588,205 @@
       <c r="A82">
         <v>0</v>
       </c>
-      <c r="B82">
-        <v>0</v>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
-      <c r="B83">
-        <v>0</v>
+      <c r="B83" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>3</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
+      <c r="A84" t="s">
+        <v>39</v>
+      </c>
+      <c r="B84" s="4"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>12</v>
-      </c>
-      <c r="B85">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>10</v>
+      </c>
+      <c r="B98">
         <v>-5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>100</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>5000</v>
       </c>
-      <c r="B87">
+      <c r="B100">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B107" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="8">
-        <v>1</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="7">
-        <v>0</v>
-      </c>
-      <c r="C98" s="7">
-        <v>0</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="7">
-        <v>0</v>
-      </c>
-      <c r="C99" s="7">
-        <v>0</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" s="7">
-        <v>0</v>
-      </c>
-      <c r="C100" s="7">
-        <v>0</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="9">
-        <v>0</v>
-      </c>
-      <c r="C101" s="9">
-        <v>0</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B103" s="9">
-        <v>0</v>
-      </c>
-      <c r="C103" s="9">
-        <v>0</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B104" s="9">
-        <v>0</v>
-      </c>
-      <c r="C104" s="9">
-        <v>0</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B108" s="8">
+        <v>1</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="8">
-        <v>1</v>
-      </c>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+      <c r="B110" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E110" s="7"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>20</v>
+      <c r="A111" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="7">
+        <v>0</v>
+      </c>
+      <c r="C111" s="7">
+        <v>0</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B112" s="7">
         <v>0</v>
@@ -1710,12 +1798,12 @@
         <v>6</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B113" s="7">
         <v>0</v>
@@ -1727,61 +1815,61 @@
         <v>6</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B114" s="7">
-        <v>0</v>
-      </c>
-      <c r="C114" s="7">
+        <v>4</v>
+      </c>
+      <c r="B114" s="9">
+        <v>0</v>
+      </c>
+      <c r="C114" s="9">
         <v>0</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="9">
-        <v>0</v>
-      </c>
-      <c r="C115" s="9">
-        <v>0</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" s="7"/>
       <c r="E115" s="7" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="B116" s="9">
+        <v>0</v>
+      </c>
+      <c r="C116" s="9">
+        <v>0</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E116" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B117" s="9">
         <v>0</v>
@@ -1790,193 +1878,201 @@
         <v>0</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B118" s="9">
-        <v>0</v>
-      </c>
-      <c r="C118" s="9">
-        <v>0</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A119" s="7"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
+      <c r="A121" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A122" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="8">
+        <v>1</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="7"/>
+      <c r="B124" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" t="s">
-        <v>21</v>
+      <c r="A125" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="7">
+        <v>0</v>
+      </c>
+      <c r="C125" s="7">
+        <v>0</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>1</v>
-      </c>
-      <c r="B126">
-        <v>0.15</v>
-      </c>
-      <c r="C126">
-        <v>0.15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
+      <c r="A126" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="7">
+        <v>0</v>
+      </c>
+      <c r="C126" s="7">
+        <v>0</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127">
-        <v>0.99</v>
-      </c>
-      <c r="C127">
-        <v>0.99</v>
-      </c>
-      <c r="D127" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" t="s">
-        <v>11</v>
+      <c r="A127" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="7">
+        <v>0</v>
+      </c>
+      <c r="C127" s="7">
+        <v>0</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>3</v>
-      </c>
-      <c r="B128">
-        <v>100</v>
-      </c>
-      <c r="C128">
-        <v>100</v>
-      </c>
-      <c r="D128" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" t="s">
-        <v>12</v>
+      <c r="A128" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="9">
+        <v>0</v>
+      </c>
+      <c r="C128" s="9">
+        <v>0</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>4</v>
-      </c>
-      <c r="B129" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="C129" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" t="s">
-        <v>14</v>
+      <c r="A129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E130" t="s">
-        <v>0</v>
+      <c r="A130" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B130" s="9">
+        <v>0</v>
+      </c>
+      <c r="C130" s="9">
+        <v>0</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>70</v>
-      </c>
-      <c r="B131" s="5">
-        <v>3600</v>
-      </c>
-      <c r="C131" s="5">
-        <v>3600</v>
-      </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" t="s">
-        <v>15</v>
+      <c r="A131" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="9">
+        <v>0</v>
+      </c>
+      <c r="C131" s="9">
+        <v>0</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>71</v>
-      </c>
-      <c r="B132" s="5">
-        <v>50000</v>
-      </c>
-      <c r="C132" s="5">
-        <v>50000</v>
-      </c>
-      <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132" t="s">
-        <v>16</v>
-      </c>
+      <c r="A132" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>48</v>
-      </c>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
@@ -1985,162 +2081,156 @@
       <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B135" s="5"/>
-      <c r="C135" s="5"/>
+      <c r="A135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="5"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B137" s="6">
-        <v>1</v>
-      </c>
-      <c r="C137" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B139" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>20</v>
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>0.15</v>
+      </c>
+      <c r="C139">
+        <v>0.15</v>
       </c>
       <c r="D139" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="C140" s="5">
-        <v>0.15</v>
+        <v>2</v>
+      </c>
+      <c r="B140">
+        <v>0.99</v>
+      </c>
+      <c r="C140">
+        <v>0.99</v>
       </c>
       <c r="D140" t="s">
         <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="C141" s="5">
-        <v>0.99</v>
+        <v>3</v>
+      </c>
+      <c r="B141">
+        <v>100</v>
+      </c>
+      <c r="C141">
+        <v>100</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B142" s="5">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="C142" s="5">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="D142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="C143" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="D143" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B144" s="5">
+        <v>3600</v>
+      </c>
+      <c r="C144" s="5">
+        <v>3600</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B145" s="5">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="C145" s="5">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="D145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>71</v>
-      </c>
-      <c r="B146" s="5">
-        <v>50000</v>
-      </c>
-      <c r="C146" s="5">
-        <v>50000</v>
-      </c>
-      <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" t="s">
-        <v>16</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>48</v>
-      </c>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
@@ -2149,165 +2239,167 @@
       <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B149" s="5"/>
+      <c r="A149" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>18</v>
+        <v>102</v>
+      </c>
+      <c r="B150" s="6">
+        <v>1</v>
       </c>
       <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B151" s="6">
-        <v>2</v>
-      </c>
+      <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
+      <c r="B152" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B153" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>20</v>
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="C153" s="5">
+        <v>0.15</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154" s="5">
-        <v>0.2</v>
+        <v>0.99</v>
       </c>
       <c r="C154" s="5">
-        <v>0.15</v>
+        <v>0.99</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B155" s="5">
-        <v>0.99</v>
+        <v>100</v>
       </c>
       <c r="C155" s="5">
-        <v>0.99</v>
+        <v>100</v>
       </c>
       <c r="D155" t="s">
         <v>6</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156" s="5">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="C156" s="5">
-        <v>100</v>
+        <v>1E-3</v>
       </c>
       <c r="D156" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>4</v>
-      </c>
-      <c r="B157" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="C157" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="D157" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B158" s="5">
+        <v>3600</v>
+      </c>
+      <c r="C158" s="5">
+        <v>3600</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
       </c>
       <c r="E158" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B159" s="5">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="C159" s="5">
-        <v>3600</v>
+        <v>50000</v>
       </c>
       <c r="D159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>71</v>
-      </c>
-      <c r="B160" s="5">
-        <v>50000</v>
-      </c>
-      <c r="C160" s="5">
-        <v>50000</v>
-      </c>
-      <c r="D160" t="s">
-        <v>9</v>
-      </c>
-      <c r="E160" t="s">
-        <v>16</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
-      <c r="B162" s="6"/>
+      <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -2321,10 +2413,10 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B164" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C164" s="5"/>
     </row>
@@ -2345,595 +2437,1319 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B167" s="5">
-        <v>300</v>
+        <v>0.2</v>
       </c>
       <c r="C167" s="5">
-        <v>350</v>
+        <v>0.15</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E167" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="B168" s="5">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="C168" s="5">
-        <v>0.85</v>
+        <v>0.99</v>
       </c>
       <c r="D168" t="s">
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B169" s="5">
-        <v>0.55000000000000004</v>
+        <v>100</v>
       </c>
       <c r="C169" s="5">
-        <v>0.55000000000000004</v>
+        <v>100</v>
       </c>
       <c r="D169" t="s">
         <v>6</v>
       </c>
       <c r="E169" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B170" s="5">
-        <v>0.8</v>
+        <v>1E-3</v>
       </c>
       <c r="C170" s="5">
-        <v>0.8</v>
+        <v>1E-3</v>
       </c>
       <c r="D170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>2</v>
-      </c>
-      <c r="B171" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="C171" s="5">
-        <v>0.99</v>
-      </c>
-      <c r="D171" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B172" s="5">
-        <v>1E-4</v>
+        <v>3600</v>
       </c>
       <c r="C172" s="5">
-        <v>1E-4</v>
+        <v>3600</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B173" s="5">
-        <v>0.05</v>
+        <v>50000</v>
       </c>
       <c r="C173" s="5">
-        <v>0.05</v>
+        <v>50000</v>
       </c>
       <c r="D173" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E173" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E174" t="s">
-        <v>0</v>
-      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>70</v>
-      </c>
-      <c r="B175" s="5">
-        <v>3600</v>
-      </c>
-      <c r="C175" s="5">
-        <v>3600</v>
-      </c>
-      <c r="D175" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
-        <v>15</v>
-      </c>
+      <c r="A175" s="2"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>71</v>
-      </c>
-      <c r="B176" s="5">
-        <v>50000</v>
-      </c>
-      <c r="C176" s="5">
-        <v>50000</v>
-      </c>
-      <c r="D176" t="s">
-        <v>9</v>
-      </c>
-      <c r="E176" t="s">
-        <v>16</v>
-      </c>
+      <c r="A176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="5"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C177" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D177" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" t="s">
-        <v>93</v>
-      </c>
+      <c r="A177" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B177" s="6">
+        <v>1</v>
+      </c>
+      <c r="C177" s="5"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>48</v>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B179" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C180" s="5"/>
+      <c r="A180" t="s">
+        <v>89</v>
+      </c>
+      <c r="B180" s="5">
+        <v>300</v>
+      </c>
+      <c r="C180" s="5">
+        <v>350</v>
+      </c>
+      <c r="D180" t="s">
+        <v>90</v>
+      </c>
+      <c r="E180" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B181" s="6">
-        <v>1</v>
-      </c>
-      <c r="C181" s="5"/>
+      <c r="A181" t="s">
+        <v>86</v>
+      </c>
+      <c r="B181" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C181" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B182" s="5"/>
-      <c r="C182" s="5"/>
+      <c r="A182" t="s">
+        <v>87</v>
+      </c>
+      <c r="B182" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C182" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B183" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>20</v>
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C183" s="5">
+        <v>0.8</v>
       </c>
       <c r="D183" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="B184" s="5">
-        <v>300</v>
+        <v>0.99</v>
       </c>
       <c r="C184" s="5">
-        <v>350</v>
+        <v>0.99</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B185" s="5">
-        <v>0.85</v>
+        <v>1E-4</v>
       </c>
       <c r="C185" s="5">
-        <v>0.85</v>
+        <v>1E-4</v>
       </c>
       <c r="D185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B186" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="C186" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="D186" t="s">
         <v>6</v>
       </c>
       <c r="E186" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>1</v>
-      </c>
-      <c r="B187" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C187" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D187" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B188" s="5">
-        <v>0.99</v>
+        <v>3600</v>
       </c>
       <c r="C188" s="5">
-        <v>0.99</v>
+        <v>3600</v>
       </c>
       <c r="D188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B189" s="5">
-        <v>1E-4</v>
+        <v>50000</v>
       </c>
       <c r="C189" s="5">
-        <v>1E-4</v>
+        <v>50000</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E189" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B190" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C190" s="5">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E191" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>70</v>
-      </c>
-      <c r="B192" s="5">
-        <v>3600</v>
-      </c>
-      <c r="C192" s="5">
-        <v>3600</v>
-      </c>
-      <c r="D192" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>71</v>
-      </c>
-      <c r="B193" s="5">
-        <v>50000</v>
-      </c>
-      <c r="C193" s="5">
-        <v>50000</v>
-      </c>
-      <c r="D193" t="s">
-        <v>9</v>
-      </c>
-      <c r="E193" t="s">
-        <v>16</v>
-      </c>
+      <c r="A193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>92</v>
-      </c>
-      <c r="B194" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C194" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="D194" t="s">
-        <v>7</v>
-      </c>
-      <c r="E194" t="s">
-        <v>93</v>
-      </c>
+      <c r="A194" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B194" s="6">
+        <v>1</v>
+      </c>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>48</v>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>89</v>
+      </c>
+      <c r="B197" s="5">
+        <v>300</v>
+      </c>
+      <c r="C197" s="5">
+        <v>350</v>
+      </c>
+      <c r="D197" t="s">
+        <v>90</v>
+      </c>
+      <c r="E197" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C198" s="5"/>
+      <c r="A198" t="s">
+        <v>86</v>
+      </c>
+      <c r="B198" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C198" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="D198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E198" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B199" s="6">
-        <v>1</v>
-      </c>
-      <c r="C199" s="5"/>
+      <c r="A199" t="s">
+        <v>87</v>
+      </c>
+      <c r="B199" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C199" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B200" s="5"/>
-      <c r="C200" s="5"/>
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C200" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B201" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>20</v>
+      <c r="A201" t="s">
+        <v>2</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C201" s="5">
+        <v>0.99</v>
       </c>
       <c r="D201" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B202" s="5">
-        <v>0.2</v>
+        <v>1E-4</v>
       </c>
       <c r="C202" s="5">
-        <v>0.15</v>
+        <v>1E-4</v>
       </c>
       <c r="D202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B203" s="5">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="C203" s="5">
-        <v>0.99</v>
+        <v>0.05</v>
       </c>
       <c r="D203" t="s">
         <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>3</v>
-      </c>
-      <c r="B204" s="5">
-        <v>100</v>
-      </c>
-      <c r="C204" s="5">
-        <v>100</v>
-      </c>
-      <c r="D204" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="B205" s="5">
-        <v>1E-3</v>
+        <v>3600</v>
       </c>
       <c r="C205" s="5">
-        <v>1E-3</v>
+        <v>3600</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B206" s="5">
-        <v>1.5</v>
+        <v>50000</v>
       </c>
       <c r="C206" s="5">
-        <v>1.5</v>
+        <v>50000</v>
       </c>
       <c r="D206" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E206" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>0</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B207" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C207" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C211" s="5"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B212" s="6">
+        <v>1</v>
+      </c>
+      <c r="C212" s="5"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B214" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D214" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C215" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="C216" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>3</v>
+      </c>
+      <c r="B217" s="5">
+        <v>100</v>
+      </c>
+      <c r="C217" s="5">
+        <v>100</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C218" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>98</v>
+      </c>
+      <c r="B219" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C219" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>70</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B221" s="5">
         <v>3600</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C221" s="5">
         <v>3600</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D221" t="s">
         <v>8</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E221" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>71</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B222" s="5">
         <v>50000</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C222" s="5">
         <v>50000</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D222" t="s">
         <v>9</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E222" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>48</v>
       </c>
-      <c r="B210" s="5"/>
-      <c r="C210" s="5"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B212" s="5"/>
-      <c r="C212" s="5"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>113</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>0.2</v>
+      </c>
+      <c r="C229">
+        <v>0.15</v>
+      </c>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230">
+        <v>0.99</v>
+      </c>
+      <c r="C230">
+        <v>0.99</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231">
+        <v>1E-3</v>
+      </c>
+      <c r="C231">
+        <v>1E-3</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>115</v>
+      </c>
+      <c r="B232">
+        <v>0.2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>116</v>
+      </c>
+      <c r="B233">
+        <v>0.05</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>117</v>
+      </c>
+      <c r="B234">
+        <v>0.5</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>118</v>
+      </c>
+      <c r="B235">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D235" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>70</v>
+      </c>
+      <c r="B237">
+        <v>3600</v>
+      </c>
+      <c r="C237">
+        <v>3600</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>71</v>
+      </c>
+      <c r="B238">
+        <v>50000</v>
+      </c>
+      <c r="C238">
+        <v>50000</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>17</v>
+      </c>
+      <c r="B241" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>102</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>0.15</v>
+      </c>
+      <c r="C245">
+        <v>0.15</v>
+      </c>
+      <c r="D245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246">
+        <v>0.99</v>
+      </c>
+      <c r="C246">
+        <v>0.99</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E246" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247">
+        <v>100</v>
+      </c>
+      <c r="C247">
+        <v>100</v>
+      </c>
+      <c r="D247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E247" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B248">
+        <v>1E-3</v>
+      </c>
+      <c r="C248">
+        <v>1E-3</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>70</v>
+      </c>
+      <c r="B250">
+        <v>3600</v>
+      </c>
+      <c r="C250">
+        <v>3600</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>71</v>
+      </c>
+      <c r="B251">
+        <v>50000</v>
+      </c>
+      <c r="C251">
+        <v>50000</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B254" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>114</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>89</v>
+      </c>
+      <c r="B258">
+        <v>300</v>
+      </c>
+      <c r="C258">
+        <v>350</v>
+      </c>
+      <c r="D258" t="s">
+        <v>90</v>
+      </c>
+      <c r="E258" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>86</v>
+      </c>
+      <c r="B259">
+        <v>0.85</v>
+      </c>
+      <c r="C259">
+        <v>0.85</v>
+      </c>
+      <c r="D259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E259" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>87</v>
+      </c>
+      <c r="B260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C260">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E260" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1</v>
+      </c>
+      <c r="B261">
+        <v>0.8</v>
+      </c>
+      <c r="C261">
+        <v>0.8</v>
+      </c>
+      <c r="D261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>0.99</v>
+      </c>
+      <c r="C262">
+        <v>0.99</v>
+      </c>
+      <c r="D262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263">
+        <v>1E-4</v>
+      </c>
+      <c r="C263">
+        <v>1E-4</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>53</v>
+      </c>
+      <c r="B264">
+        <v>0.05</v>
+      </c>
+      <c r="C264">
+        <v>0.05</v>
+      </c>
+      <c r="D264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E264" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>118</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265" t="s">
+        <v>119</v>
+      </c>
+      <c r="E265" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>70</v>
+      </c>
+      <c r="B266">
+        <v>3600</v>
+      </c>
+      <c r="C266">
+        <v>3600</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>71</v>
+      </c>
+      <c r="B267">
+        <v>50000</v>
+      </c>
+      <c r="C267">
+        <v>50000</v>
+      </c>
+      <c r="D267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>92</v>
+      </c>
+      <c r="B268">
+        <v>0.01</v>
+      </c>
+      <c r="C268">
+        <v>0.01</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>120</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+      <c r="D269" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>122</v>
+      </c>
+      <c r="B270">
+        <v>24</v>
+      </c>
+      <c r="C270">
+        <v>48</v>
+      </c>
+      <c r="D270" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/test_excel/test_excel.xlsx
+++ b/results/test_excel/test_excel.xlsx
@@ -467,7 +467,7 @@
     <t>30.09.2011</t>
   </si>
   <si>
-    <t>15.10.2011</t>
+    <t>05.10.2011</t>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C83">
         <v>1</v>

--- a/results/test_excel/test_excel.xlsx
+++ b/results/test_excel/test_excel.xlsx
@@ -467,7 +467,7 @@
     <t>30.09.2011</t>
   </si>
   <si>
-    <t>05.10.2011</t>
+    <t>15.10.2011</t>
   </si>
 </sst>
 </file>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C83">
         <v>1</v>
